--- a/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-desired-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,151 +52,151 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>benefits</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>benefits</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>contest</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>creative</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>ready</t>
   </si>
   <si>
     <t>credit</t>
@@ -739,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>87</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -1000,28 +1000,28 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.109375</v>
+        <v>0.05038759689922481</v>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D7">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>114</v>
+        <v>490</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1046,32 +1046,8 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.05038759689922481</v>
-      </c>
-      <c r="C8">
-        <v>26</v>
-      </c>
-      <c r="D8">
-        <v>26</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>490</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8">
         <v>0.9655172413793104</v>
@@ -1097,7 +1073,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
         <v>0.9555555555555556</v>
@@ -1123,7 +1099,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
         <v>0.9545454545454546</v>
@@ -1149,7 +1125,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
         <v>0.9444444444444444</v>
@@ -1175,7 +1151,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
         <v>0.9444444444444444</v>
@@ -1201,7 +1177,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
         <v>0.9285714285714286</v>
@@ -1227,7 +1203,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
         <v>0.9148936170212766</v>
@@ -1253,7 +1229,7 @@
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
         <v>0.9145299145299145</v>
@@ -1279,7 +1255,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
         <v>0.9090909090909091</v>
@@ -1305,7 +1281,7 @@
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
         <v>0.8976377952755905</v>
@@ -1331,7 +1307,7 @@
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
         <v>0.8899082568807339</v>
@@ -1357,7 +1333,7 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
         <v>0.8888888888888888</v>
@@ -1383,7 +1359,7 @@
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
         <v>0.8666666666666667</v>
@@ -1409,7 +1385,7 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
         <v>0.8666666666666667</v>
@@ -1435,7 +1411,7 @@
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
         <v>0.8529411764705882</v>
@@ -1461,7 +1437,7 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
         <v>0.85</v>
@@ -1487,7 +1463,7 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
         <v>0.8421052631578947</v>
@@ -1513,7 +1489,7 @@
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
         <v>0.84</v>
@@ -1539,7 +1515,7 @@
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
         <v>0.8214285714285714</v>
@@ -1565,7 +1541,7 @@
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
         <v>0.8205128205128205</v>
@@ -1591,7 +1567,7 @@
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
         <v>0.8156028368794326</v>
@@ -1617,7 +1593,7 @@
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
         <v>0.8095238095238095</v>
@@ -1643,7 +1619,7 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>0.8076923076923077</v>
@@ -1669,7 +1645,7 @@
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>0.7777777777777778</v>
@@ -1695,42 +1671,42 @@
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L32">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>186</v>
+        <v>18</v>
       </c>
       <c r="N32">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>53</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K33">
-        <v>0.75</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1742,12 +1718,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K34">
         <v>0.7222222222222222</v>
@@ -1773,7 +1749,7 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K35">
         <v>0.7222222222222222</v>
@@ -1799,7 +1775,7 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K36">
         <v>0.7111111111111111</v>
@@ -1825,7 +1801,7 @@
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K37">
         <v>0.7</v>
@@ -1851,7 +1827,7 @@
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K38">
         <v>0.696969696969697</v>
@@ -1877,7 +1853,7 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K39">
         <v>0.6956521739130435</v>
@@ -1903,7 +1879,7 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K40">
         <v>0.6862745098039216</v>
@@ -1929,7 +1905,7 @@
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K41">
         <v>0.6818181818181818</v>
@@ -1955,7 +1931,7 @@
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42">
         <v>0.6666666666666666</v>
@@ -1981,7 +1957,7 @@
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K43">
         <v>0.6571428571428571</v>
@@ -2007,28 +1983,28 @@
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K44">
-        <v>0.6503067484662577</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L44">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>226</v>
+        <v>26</v>
       </c>
       <c r="N44">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O44">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P44" t="b">
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>114</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2036,25 +2012,25 @@
         <v>56</v>
       </c>
       <c r="K45">
-        <v>0.6410256410256411</v>
+        <v>0.6404199475065617</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>246</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>14</v>
+        <v>137</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2062,25 +2038,25 @@
         <v>57</v>
       </c>
       <c r="K46">
-        <v>0.6404199475065617</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L46">
-        <v>244</v>
+        <v>14</v>
       </c>
       <c r="M46">
-        <v>246</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0.99</v>
+        <v>0.88</v>
       </c>
       <c r="O46">
-        <v>0.01000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>137</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2088,25 +2064,25 @@
         <v>58</v>
       </c>
       <c r="K47">
-        <v>0.6363636363636364</v>
+        <v>0.6350877192982456</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>181</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="N47">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="O47">
-        <v>0.12</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2114,25 +2090,25 @@
         <v>59</v>
       </c>
       <c r="K48">
-        <v>0.6350877192982456</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L48">
-        <v>181</v>
+        <v>17</v>
       </c>
       <c r="M48">
-        <v>191</v>
+        <v>18</v>
       </c>
       <c r="N48">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O48">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>104</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2140,25 +2116,25 @@
         <v>60</v>
       </c>
       <c r="K49">
-        <v>0.6296296296296297</v>
+        <v>0.6235294117647059</v>
       </c>
       <c r="L49">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="M49">
-        <v>18</v>
+        <v>212</v>
       </c>
       <c r="N49">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>10</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="10:17">
